--- a/Code/Results/Cases/Case_8_43/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_43/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.96174549366762</v>
+        <v>22.54589944372817</v>
       </c>
       <c r="C2">
-        <v>16.42594534538459</v>
+        <v>17.16839616290279</v>
       </c>
       <c r="D2">
-        <v>2.353764403404628</v>
+        <v>2.858019739837011</v>
       </c>
       <c r="E2">
-        <v>5.685200109493419</v>
+        <v>6.346146320355353</v>
       </c>
       <c r="F2">
-        <v>38.39490340122601</v>
+        <v>34.76229290228027</v>
       </c>
       <c r="G2">
-        <v>2.133164385906242</v>
+        <v>7.366749262017355</v>
       </c>
       <c r="H2">
-        <v>3.605123098489967</v>
+        <v>3.049928101856417</v>
       </c>
       <c r="I2">
-        <v>4.047440861328163</v>
+        <v>3.48093066047605</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>24.97859412119237</v>
+        <v>22.12261722261049</v>
       </c>
       <c r="L2">
-        <v>5.566774217950512</v>
+        <v>17.55420513294466</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.36367304389107</v>
       </c>
       <c r="N2">
-        <v>7.122846486160668</v>
+        <v>5.754656561611558</v>
       </c>
       <c r="O2">
-        <v>14.81803495164962</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>14.58011706800646</v>
+        <v>7.474629147770992</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>14.31123626731089</v>
+      </c>
+      <c r="R2">
+        <v>13.7577429838719</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.53171940442745</v>
+        <v>21.17746200661782</v>
       </c>
       <c r="C3">
-        <v>15.28515032260815</v>
+        <v>15.98178919447944</v>
       </c>
       <c r="D3">
-        <v>2.243188447017058</v>
+        <v>2.834195650091172</v>
       </c>
       <c r="E3">
-        <v>5.490994903546656</v>
+        <v>6.228185995335194</v>
       </c>
       <c r="F3">
-        <v>37.21289914805796</v>
+        <v>33.69045784904344</v>
       </c>
       <c r="G3">
-        <v>2.140091157078606</v>
+        <v>8.184085567240773</v>
       </c>
       <c r="H3">
-        <v>3.91608389916192</v>
+        <v>3.29701735941872</v>
       </c>
       <c r="I3">
-        <v>4.309425958788498</v>
+        <v>3.677378908034028</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>24.48950510263832</v>
+        <v>21.7371664688799</v>
       </c>
       <c r="L3">
-        <v>5.471124188706557</v>
+        <v>17.40222051227983</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.94570266834159</v>
       </c>
       <c r="N3">
-        <v>6.932025580627599</v>
+        <v>5.683769264557885</v>
       </c>
       <c r="O3">
-        <v>14.1746801461439</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>14.71041431816956</v>
+        <v>7.278613436968037</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>13.66923668681395</v>
+      </c>
+      <c r="R3">
+        <v>13.88685843423019</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.60805977328083</v>
+        <v>20.2880498604238</v>
       </c>
       <c r="C4">
-        <v>14.57650138514476</v>
+        <v>15.21218494642035</v>
       </c>
       <c r="D4">
-        <v>2.17313329901863</v>
+        <v>2.819913523789012</v>
       </c>
       <c r="E4">
-        <v>5.368482432304776</v>
+        <v>6.154016437108805</v>
       </c>
       <c r="F4">
-        <v>36.47639535647449</v>
+        <v>33.01581794226579</v>
       </c>
       <c r="G4">
-        <v>2.144476295754482</v>
+        <v>8.702563400432751</v>
       </c>
       <c r="H4">
-        <v>4.113054506034049</v>
+        <v>3.45386599252492</v>
       </c>
       <c r="I4">
-        <v>4.475935295975471</v>
+        <v>3.80289276999316</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>24.18737165211776</v>
+        <v>21.49582121658002</v>
       </c>
       <c r="L4">
-        <v>5.410581393278781</v>
+        <v>17.30029675667027</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.70064168816612</v>
       </c>
       <c r="N4">
-        <v>6.813018951046364</v>
+        <v>5.638907779001283</v>
       </c>
       <c r="O4">
-        <v>13.76640619648901</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>14.79072755836757</v>
+        <v>7.156612827262807</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>13.25954611802107</v>
+      </c>
+      <c r="R4">
+        <v>13.96627609462594</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.21228413380889</v>
+        <v>19.90552373326293</v>
       </c>
       <c r="C5">
-        <v>14.28746814008262</v>
+        <v>14.89161942404624</v>
       </c>
       <c r="D5">
-        <v>2.142555842591711</v>
+        <v>2.813796113258275</v>
       </c>
       <c r="E5">
-        <v>5.317368822805324</v>
+        <v>6.123153987784073</v>
       </c>
       <c r="F5">
-        <v>36.15804275705521</v>
+        <v>32.72178211397993</v>
       </c>
       <c r="G5">
-        <v>2.146310308312115</v>
+        <v>8.919647676358492</v>
       </c>
       <c r="H5">
-        <v>4.195476620715263</v>
+        <v>3.519578929320348</v>
       </c>
       <c r="I5">
-        <v>4.547820499713314</v>
+        <v>3.858310628167855</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>24.05240955080086</v>
+        <v>21.38561684289271</v>
       </c>
       <c r="L5">
-        <v>5.385213268635979</v>
+        <v>17.24758559630763</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.59672441599402</v>
       </c>
       <c r="N5">
-        <v>6.765073189867429</v>
+        <v>5.620148233226286</v>
       </c>
       <c r="O5">
-        <v>13.59476078036136</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>14.82124327531093</v>
+        <v>7.10745885693433</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>13.08680612285644</v>
+      </c>
+      <c r="R5">
+        <v>13.99702563886382</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.13599301866006</v>
+        <v>19.83173417611111</v>
       </c>
       <c r="C6">
-        <v>14.24352086124086</v>
+        <v>14.84195667750372</v>
       </c>
       <c r="D6">
-        <v>2.135638296698437</v>
+        <v>2.812327589151007</v>
       </c>
       <c r="E6">
-        <v>5.308408046582666</v>
+        <v>6.117770162546796</v>
       </c>
       <c r="F6">
-        <v>36.08567353909153</v>
+        <v>32.65410794171395</v>
       </c>
       <c r="G6">
-        <v>2.146632702743869</v>
+        <v>8.957827208000861</v>
       </c>
       <c r="H6">
-        <v>4.209987818755981</v>
+        <v>3.531157558895311</v>
       </c>
       <c r="I6">
-        <v>4.563124069382255</v>
+        <v>3.871461886480414</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>24.01596495753292</v>
+        <v>21.3541330584885</v>
       </c>
       <c r="L6">
-        <v>5.38069538214025</v>
+        <v>17.22771471085664</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.57080372434871</v>
       </c>
       <c r="N6">
-        <v>6.758282555252913</v>
+        <v>5.616848269851841</v>
       </c>
       <c r="O6">
-        <v>13.5634793405915</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>14.82350950094839</v>
+        <v>7.10041365046514</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>13.05538389055508</v>
+      </c>
+      <c r="R6">
+        <v>14.00011294922563</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.5762904026742</v>
+        <v>20.21963966024255</v>
       </c>
       <c r="C7">
-        <v>14.58462436291947</v>
+        <v>15.152379789631</v>
       </c>
       <c r="D7">
-        <v>2.167822698891798</v>
+        <v>2.81408549876654</v>
       </c>
       <c r="E7">
-        <v>5.366653915400605</v>
+        <v>6.148590282450574</v>
       </c>
       <c r="F7">
-        <v>36.41974641277022</v>
+        <v>32.86408747270218</v>
       </c>
       <c r="G7">
-        <v>2.144543488553917</v>
+        <v>8.762089041804799</v>
       </c>
       <c r="H7">
-        <v>4.116131666630468</v>
+        <v>3.459457400729678</v>
       </c>
       <c r="I7">
-        <v>4.485629204683458</v>
+        <v>3.816846759237901</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>24.14752672189313</v>
+        <v>21.40457307140406</v>
       </c>
       <c r="L7">
-        <v>5.409500432047512</v>
+        <v>17.22508107193987</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.63773888763112</v>
       </c>
       <c r="N7">
-        <v>6.815613229084608</v>
+        <v>5.636846301454673</v>
       </c>
       <c r="O7">
-        <v>13.75711128521893</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>14.78352697703945</v>
+        <v>7.155590552382801</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>13.23398699310309</v>
+      </c>
+      <c r="R7">
+        <v>13.9530639317317</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.44556009544609</v>
+        <v>21.93634939159088</v>
       </c>
       <c r="C8">
-        <v>16.05429493061326</v>
+        <v>16.57715530852325</v>
       </c>
       <c r="D8">
-        <v>2.309825163205418</v>
+        <v>2.833998987167529</v>
       </c>
       <c r="E8">
-        <v>5.617435060817145</v>
+        <v>6.290599136663171</v>
       </c>
       <c r="F8">
-        <v>37.92302058813503</v>
+        <v>34.02199995694067</v>
       </c>
       <c r="G8">
-        <v>2.135580214656837</v>
+        <v>7.889020416484488</v>
       </c>
       <c r="H8">
-        <v>3.713629868319187</v>
+        <v>3.146110208549115</v>
       </c>
       <c r="I8">
-        <v>4.147859279708134</v>
+        <v>3.570291371051179</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>24.76127105624322</v>
+        <v>21.77045104268585</v>
       </c>
       <c r="L8">
-        <v>5.533245973229972</v>
+        <v>17.32668169043752</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>15.05967486673389</v>
       </c>
       <c r="N8">
-        <v>7.061627337574423</v>
+        <v>5.725508350351084</v>
       </c>
       <c r="O8">
-        <v>14.59023410892322</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>14.61515117390797</v>
+        <v>7.400312514529109</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>14.03279196543488</v>
+      </c>
+      <c r="R8">
+        <v>13.77038524909126</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.78640232469503</v>
+        <v>25.09007614810378</v>
       </c>
       <c r="C9">
-        <v>18.69072155264689</v>
+        <v>19.27482107816868</v>
       </c>
       <c r="D9">
-        <v>2.579784767239222</v>
+        <v>2.892366371913154</v>
       </c>
       <c r="E9">
-        <v>6.086322755264765</v>
+        <v>6.572231360319821</v>
       </c>
       <c r="F9">
-        <v>40.86219028856583</v>
+        <v>36.59501219537765</v>
       </c>
       <c r="G9">
-        <v>2.118935612348587</v>
+        <v>6.024594642660351</v>
       </c>
       <c r="H9">
-        <v>2.967052471577815</v>
+        <v>2.557402775363293</v>
       </c>
       <c r="I9">
-        <v>3.514433074673282</v>
+        <v>3.09743859936525</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>26.01296217680147</v>
+        <v>22.70839796749096</v>
       </c>
       <c r="L9">
-        <v>5.763369855529776</v>
+        <v>17.67106494315938</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.14892824255349</v>
       </c>
       <c r="N9">
-        <v>7.522363238085317</v>
+        <v>5.894678480884672</v>
       </c>
       <c r="O9">
-        <v>16.1238541285907</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>14.30010108343163</v>
+        <v>7.872530015663797</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>15.54205598459119</v>
+      </c>
+      <c r="R9">
+        <v>13.45073996663779</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>28.92077730495538</v>
+        <v>26.91807163874322</v>
       </c>
       <c r="C10">
-        <v>20.43080524895797</v>
+        <v>20.73625314607524</v>
       </c>
       <c r="D10">
-        <v>2.772183282267394</v>
+        <v>2.924105728364089</v>
       </c>
       <c r="E10">
-        <v>6.439332147956256</v>
+        <v>6.76716907057836</v>
       </c>
       <c r="F10">
-        <v>42.6759589002016</v>
+        <v>37.66158558988932</v>
       </c>
       <c r="G10">
-        <v>2.107504609275308</v>
+        <v>5.856845470451097</v>
       </c>
       <c r="H10">
-        <v>2.476170335336316</v>
+        <v>2.194242415371153</v>
       </c>
       <c r="I10">
-        <v>3.089386471339793</v>
+        <v>2.801736808748323</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>26.750273361033</v>
+        <v>22.94950719035868</v>
       </c>
       <c r="L10">
-        <v>5.926866851628273</v>
+        <v>17.56764198408117</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.65954246979223</v>
       </c>
       <c r="N10">
-        <v>7.78161297780097</v>
+        <v>6.01166527075242</v>
       </c>
       <c r="O10">
-        <v>17.08939825907812</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>14.03417332379499</v>
+        <v>8.119621454555338</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>16.40392753326001</v>
+      </c>
+      <c r="R10">
+        <v>13.16256056939864</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>29.11766518880405</v>
+        <v>26.80047283571297</v>
       </c>
       <c r="C11">
-        <v>20.91462895300281</v>
+        <v>20.55712637801819</v>
       </c>
       <c r="D11">
-        <v>2.899659194009773</v>
+        <v>2.968286416584957</v>
       </c>
       <c r="E11">
-        <v>6.845455931597706</v>
+        <v>7.01350435538968</v>
       </c>
       <c r="F11">
-        <v>41.2666664676366</v>
+        <v>35.35285091938265</v>
       </c>
       <c r="G11">
-        <v>2.104371266473898</v>
+        <v>8.942369511344129</v>
       </c>
       <c r="H11">
-        <v>3.228741150003282</v>
+        <v>3.064629700381115</v>
       </c>
       <c r="I11">
-        <v>3.001427671547981</v>
+        <v>2.775703539520002</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>25.7316220571844</v>
+        <v>21.47217347959578</v>
       </c>
       <c r="L11">
-        <v>6.055626162592248</v>
+        <v>16.34650423894297</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.66796610753075</v>
       </c>
       <c r="N11">
-        <v>7.31601333624603</v>
+        <v>6.136698845886746</v>
       </c>
       <c r="O11">
-        <v>16.78762922918997</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>13.65614464753095</v>
+        <v>7.594785681139927</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>15.94847432110703</v>
+      </c>
+      <c r="R11">
+        <v>12.89760059913957</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.87154505924692</v>
+        <v>26.45679028990017</v>
       </c>
       <c r="C12">
-        <v>20.95141232573201</v>
+        <v>20.27139972583861</v>
       </c>
       <c r="D12">
-        <v>2.97219035671272</v>
+        <v>3.002676814589236</v>
       </c>
       <c r="E12">
-        <v>7.187276611686065</v>
+        <v>7.249414208287417</v>
       </c>
       <c r="F12">
-        <v>39.74153829666317</v>
+        <v>33.5308355909958</v>
       </c>
       <c r="G12">
-        <v>2.103938910565427</v>
+        <v>10.66842499294667</v>
       </c>
       <c r="H12">
-        <v>4.476289366142735</v>
+        <v>4.365178744754076</v>
       </c>
       <c r="I12">
-        <v>2.994134021941238</v>
+        <v>2.781495857552611</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.76085620053881</v>
+        <v>20.40520450324892</v>
       </c>
       <c r="L12">
-        <v>6.179529171061529</v>
+        <v>15.52248866863719</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.88795169394798</v>
       </c>
       <c r="N12">
-        <v>6.877657558779029</v>
+        <v>6.265987267559499</v>
       </c>
       <c r="O12">
-        <v>16.331794002245</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>13.4365959544552</v>
+        <v>7.120569175658911</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>15.43425244114064</v>
+      </c>
+      <c r="R12">
+        <v>12.81382381469136</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.22999240442318</v>
+        <v>25.9529775426137</v>
       </c>
       <c r="C13">
-        <v>20.65952212889228</v>
+        <v>20.01423615879247</v>
       </c>
       <c r="D13">
-        <v>3.001448430234094</v>
+        <v>3.027234060322022</v>
       </c>
       <c r="E13">
-        <v>7.493667786438656</v>
+        <v>7.52466578585936</v>
       </c>
       <c r="F13">
-        <v>37.93399221312784</v>
+        <v>32.07168411341939</v>
       </c>
       <c r="G13">
-        <v>2.105623756452478</v>
+        <v>10.35300901872556</v>
       </c>
       <c r="H13">
-        <v>5.84647560080024</v>
+        <v>5.748708729840746</v>
       </c>
       <c r="I13">
-        <v>3.063997771309719</v>
+        <v>2.826767742768186</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.70398049691911</v>
+        <v>19.63086455418177</v>
       </c>
       <c r="L13">
-        <v>6.302280522237355</v>
+        <v>14.96852234350068</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>14.26623443322599</v>
       </c>
       <c r="N13">
-        <v>6.437871928804784</v>
+        <v>6.406767389979184</v>
       </c>
       <c r="O13">
-        <v>15.71026097284992</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>13.31550773427477</v>
+        <v>6.665428049229813</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>14.85659232871883</v>
+      </c>
+      <c r="R13">
+        <v>12.8234160797851</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.58697578162577</v>
+        <v>25.51143489348696</v>
       </c>
       <c r="C14">
-        <v>20.30510713880097</v>
+        <v>19.84036500651415</v>
       </c>
       <c r="D14">
-        <v>3.001190358202145</v>
+        <v>3.047095702409676</v>
       </c>
       <c r="E14">
-        <v>7.698502962138891</v>
+        <v>7.752274036217399</v>
       </c>
       <c r="F14">
-        <v>36.51606689712893</v>
+        <v>31.17588838745883</v>
       </c>
       <c r="G14">
-        <v>2.107762653647015</v>
+        <v>9.264066235707885</v>
       </c>
       <c r="H14">
-        <v>6.83928134579528</v>
+        <v>6.740853663769575</v>
       </c>
       <c r="I14">
-        <v>3.150558377142762</v>
+        <v>2.880429334767953</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>22.91491816971877</v>
+        <v>19.19733345302001</v>
       </c>
       <c r="L14">
-        <v>6.392012216016717</v>
+        <v>14.68072790855084</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.88765027623039</v>
       </c>
       <c r="N14">
-        <v>6.135362771884243</v>
+        <v>6.515016199308277</v>
       </c>
       <c r="O14">
-        <v>15.192098299537</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>13.2789464218498</v>
+        <v>6.359709092270921</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.41319386386047</v>
+      </c>
+      <c r="R14">
+        <v>12.86095784914741</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.33581733660586</v>
+        <v>25.35478924502135</v>
       </c>
       <c r="C15">
-        <v>20.15071070386898</v>
+        <v>19.79728268464785</v>
       </c>
       <c r="D15">
-        <v>2.990328795644554</v>
+        <v>3.054196143556044</v>
       </c>
       <c r="E15">
-        <v>7.732188916145091</v>
+        <v>7.811424982071513</v>
       </c>
       <c r="F15">
-        <v>36.09454268591701</v>
+        <v>31.00013904288419</v>
       </c>
       <c r="G15">
-        <v>2.108766736391773</v>
+        <v>8.654343585621749</v>
       </c>
       <c r="H15">
-        <v>7.076016432048227</v>
+        <v>6.973807662175459</v>
       </c>
       <c r="I15">
-        <v>3.193099634736647</v>
+        <v>2.908166941012114</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>22.6933016398266</v>
+        <v>19.12909697187856</v>
       </c>
       <c r="L15">
-        <v>6.407497313619431</v>
+        <v>14.64673195494207</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.81242813531114</v>
       </c>
       <c r="N15">
-        <v>6.060685961646304</v>
+        <v>6.538420474842652</v>
       </c>
       <c r="O15">
-        <v>15.02818201585223</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>13.2855549098426</v>
+        <v>6.287493592650045</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.28630648029777</v>
+      </c>
+      <c r="R15">
+        <v>12.87930161873012</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.52649059514957</v>
+        <v>24.91956508889637</v>
       </c>
       <c r="C16">
-        <v>19.47748237478604</v>
+        <v>19.68550751222696</v>
       </c>
       <c r="D16">
-        <v>2.902271768893753</v>
+        <v>3.075186657275122</v>
       </c>
       <c r="E16">
-        <v>7.531772601134823</v>
+        <v>7.774303210865424</v>
       </c>
       <c r="F16">
-        <v>35.58686328030235</v>
+        <v>31.46690457999245</v>
       </c>
       <c r="G16">
-        <v>2.113319965641325</v>
+        <v>6.238123684098664</v>
       </c>
       <c r="H16">
-        <v>6.930949501907264</v>
+        <v>6.791553407484514</v>
       </c>
       <c r="I16">
-        <v>3.365257722642451</v>
+        <v>3.011201107736785</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.54809899745636</v>
+        <v>19.53087115719393</v>
       </c>
       <c r="L16">
-        <v>6.311136054139242</v>
+        <v>15.02982943014794</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>14.00862853019126</v>
       </c>
       <c r="N16">
-        <v>6.032822809837493</v>
+        <v>6.473237815032508</v>
       </c>
       <c r="O16">
-        <v>14.71466647777605</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>13.41857154055779</v>
+        <v>6.288943645858547</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.1275278375419</v>
+      </c>
+      <c r="R16">
+        <v>12.96538904057619</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.25223739793466</v>
+        <v>24.77779342033049</v>
       </c>
       <c r="C17">
-        <v>19.14971055000372</v>
+        <v>19.61597019889498</v>
       </c>
       <c r="D17">
-        <v>2.833972535357628</v>
+        <v>3.069907362461479</v>
       </c>
       <c r="E17">
-        <v>7.257931311634882</v>
+        <v>7.589312427609535</v>
       </c>
       <c r="F17">
-        <v>35.96962178392109</v>
+        <v>32.20032064803637</v>
       </c>
       <c r="G17">
-        <v>2.115688570952102</v>
+        <v>5.68296972105644</v>
       </c>
       <c r="H17">
-        <v>6.273963141008332</v>
+        <v>6.099109986296368</v>
       </c>
       <c r="I17">
-        <v>3.452329252744459</v>
+        <v>3.065683686592126</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.86004499664153</v>
+        <v>20.01631704926153</v>
       </c>
       <c r="L17">
-        <v>6.184849862028412</v>
+        <v>15.4470036398957</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>14.31280808093981</v>
       </c>
       <c r="N17">
-        <v>6.170682635059683</v>
+        <v>6.358152939125057</v>
       </c>
       <c r="O17">
-        <v>14.75706087878356</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>13.53740113063142</v>
+        <v>6.449055768978925</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.22880726879432</v>
+      </c>
+      <c r="R17">
+        <v>13.03047455446757</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.43500398829682</v>
+        <v>24.96198108770715</v>
       </c>
       <c r="C18">
-        <v>19.08242283296343</v>
+        <v>19.67991022659135</v>
       </c>
       <c r="D18">
-        <v>2.778322373606027</v>
+        <v>3.040918016243719</v>
       </c>
       <c r="E18">
-        <v>6.917193528277338</v>
+        <v>7.300733645286754</v>
       </c>
       <c r="F18">
-        <v>37.19682894496229</v>
+        <v>33.45966111992541</v>
       </c>
       <c r="G18">
-        <v>2.116337825252276</v>
+        <v>5.539016151105391</v>
       </c>
       <c r="H18">
-        <v>5.147445898208995</v>
+        <v>4.926578751907025</v>
       </c>
       <c r="I18">
-        <v>3.463464987306559</v>
+        <v>3.066059398460236</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>23.63036709058019</v>
+        <v>20.75705303650752</v>
       </c>
       <c r="L18">
-        <v>6.038922186712933</v>
+        <v>16.0368784921377</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>14.84014631702684</v>
       </c>
       <c r="N18">
-        <v>6.480469370342931</v>
+        <v>6.208681233432282</v>
       </c>
       <c r="O18">
-        <v>15.11592724022593</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>13.67860755005856</v>
+        <v>6.782695052202555</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>14.6004484142669</v>
+      </c>
+      <c r="R18">
+        <v>13.0963567015658</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.92581353166173</v>
+        <v>25.37950311102678</v>
       </c>
       <c r="C19">
-        <v>19.24667017981537</v>
+        <v>19.90818674082871</v>
       </c>
       <c r="D19">
-        <v>2.727452468731922</v>
+        <v>2.995335363985281</v>
       </c>
       <c r="E19">
-        <v>6.592238839703915</v>
+        <v>7.003524819082231</v>
       </c>
       <c r="F19">
-        <v>38.91594929781897</v>
+        <v>35.03216673288073</v>
       </c>
       <c r="G19">
-        <v>2.115533750911005</v>
+        <v>5.407703611010762</v>
       </c>
       <c r="H19">
-        <v>3.86931429508122</v>
+        <v>3.584855885443089</v>
       </c>
       <c r="I19">
-        <v>3.428239628023719</v>
+        <v>3.041431361623791</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.65439028433318</v>
+        <v>21.63630021293859</v>
       </c>
       <c r="L19">
-        <v>5.921113236196727</v>
+        <v>16.71281766952532</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.49728705107879</v>
       </c>
       <c r="N19">
-        <v>6.929294013926494</v>
+        <v>6.074377130468949</v>
       </c>
       <c r="O19">
-        <v>15.68456736995143</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>13.8454681209978</v>
+        <v>7.256044798200599</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>15.15663665997611</v>
+      </c>
+      <c r="R19">
+        <v>13.17295695477422</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.30589740677573</v>
+        <v>26.49395186973335</v>
       </c>
       <c r="C20">
-        <v>20.01055898577587</v>
+        <v>20.57045437681353</v>
       </c>
       <c r="D20">
-        <v>2.709426378289153</v>
+        <v>2.924639785289926</v>
       </c>
       <c r="E20">
-        <v>6.345154614447727</v>
+        <v>6.730942739431884</v>
       </c>
       <c r="F20">
-        <v>42.0507287924559</v>
+        <v>37.54317521528171</v>
       </c>
       <c r="G20">
-        <v>2.110601551432627</v>
+        <v>5.216265170469966</v>
       </c>
       <c r="H20">
-        <v>2.608843030363929</v>
+        <v>2.282093209849248</v>
       </c>
       <c r="I20">
-        <v>3.23083637711534</v>
+        <v>2.905853872410764</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>26.44277676891346</v>
+        <v>22.9570142961888</v>
       </c>
       <c r="L20">
-        <v>5.882591336295804</v>
+        <v>17.64821424274189</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.57758109834991</v>
       </c>
       <c r="N20">
-        <v>7.720155123002462</v>
+        <v>5.985277898486544</v>
       </c>
       <c r="O20">
-        <v>16.81849012238213</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>14.08079767031602</v>
+        <v>8.071812557062726</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>16.21079300895746</v>
+      </c>
+      <c r="R20">
+        <v>13.24585711109572</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.01394237867823</v>
+        <v>27.40371670561503</v>
       </c>
       <c r="C21">
-        <v>21.33848703920123</v>
+        <v>20.763814361432</v>
       </c>
       <c r="D21">
-        <v>2.848592350352829</v>
+        <v>2.929498130491999</v>
       </c>
       <c r="E21">
-        <v>6.578372961442631</v>
+        <v>6.784186919350329</v>
       </c>
       <c r="F21">
-        <v>43.83786559568206</v>
+        <v>37.15712133496606</v>
       </c>
       <c r="G21">
-        <v>2.101598383128477</v>
+        <v>10.35420824494554</v>
       </c>
       <c r="H21">
-        <v>2.190992363684426</v>
+        <v>2.013718797858115</v>
       </c>
       <c r="I21">
-        <v>2.892193776123817</v>
+        <v>2.714792667501289</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>27.26211033281229</v>
+        <v>22.45188756715675</v>
       </c>
       <c r="L21">
-        <v>6.003175601126265</v>
+        <v>17.05896054274319</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>16.44373643205152</v>
       </c>
       <c r="N21">
-        <v>8.020188687221932</v>
+        <v>6.042236421963289</v>
       </c>
       <c r="O21">
-        <v>17.66750002232916</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>13.930032618041</v>
+        <v>8.309947669306114</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>16.71989725959904</v>
+      </c>
+      <c r="R21">
+        <v>12.95631445874857</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.07160246013364</v>
+        <v>27.92287377879463</v>
       </c>
       <c r="C22">
-        <v>22.14997711021364</v>
+        <v>20.80263949651168</v>
       </c>
       <c r="D22">
-        <v>2.946150072449882</v>
+        <v>2.994684913445792</v>
       </c>
       <c r="E22">
-        <v>6.741726481102477</v>
+        <v>6.841715247201272</v>
       </c>
       <c r="F22">
-        <v>44.91702923088174</v>
+        <v>36.74141277001609</v>
       </c>
       <c r="G22">
-        <v>2.09586246562856</v>
+        <v>15.03834257440323</v>
       </c>
       <c r="H22">
-        <v>1.934401772144916</v>
+        <v>1.853694642118889</v>
       </c>
       <c r="I22">
-        <v>2.666514564923955</v>
+        <v>2.581220224152784</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.75997155143269</v>
+        <v>22.03832499874903</v>
       </c>
       <c r="L22">
-        <v>6.08278246056321</v>
+        <v>16.62325195766231</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>16.28852586750283</v>
       </c>
       <c r="N22">
-        <v>8.174655900304154</v>
+        <v>6.082910737031439</v>
       </c>
       <c r="O22">
-        <v>18.17185199699103</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>13.82454625807442</v>
+        <v>8.419270068105625</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>16.9889742806765</v>
+      </c>
+      <c r="R22">
+        <v>12.77750156463598</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>30.53438501832185</v>
+        <v>27.74504754313784</v>
       </c>
       <c r="C23">
-        <v>21.70989178050597</v>
+        <v>20.89895068968505</v>
       </c>
       <c r="D23">
-        <v>2.898933374386699</v>
+        <v>2.94633354665268</v>
       </c>
       <c r="E23">
-        <v>6.655893264274761</v>
+        <v>6.816228252678645</v>
       </c>
       <c r="F23">
-        <v>44.39427369109016</v>
+        <v>37.22507454113719</v>
       </c>
       <c r="G23">
-        <v>2.098873083266407</v>
+        <v>11.71768697915779</v>
       </c>
       <c r="H23">
-        <v>2.068984506892229</v>
+        <v>1.93148014457597</v>
       </c>
       <c r="I23">
-        <v>2.773783558276653</v>
+        <v>2.631882720672765</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.53429620189884</v>
+        <v>22.41770155174539</v>
       </c>
       <c r="L23">
-        <v>6.041064135851428</v>
+        <v>16.97088213555279</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>16.49533101523411</v>
       </c>
       <c r="N23">
-        <v>8.08909885745868</v>
+        <v>6.064022503515567</v>
       </c>
       <c r="O23">
-        <v>17.91076502348304</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>13.88914590005476</v>
+        <v>8.365747826280691</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>16.88785947894166</v>
+      </c>
+      <c r="R23">
+        <v>12.88466634045013</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.38026069181014</v>
+        <v>26.5637359481262</v>
       </c>
       <c r="C24">
-        <v>19.99937608478335</v>
+        <v>20.57365207132043</v>
       </c>
       <c r="D24">
-        <v>2.710068029825054</v>
+        <v>2.921469696895672</v>
       </c>
       <c r="E24">
-        <v>6.325395231010607</v>
+        <v>6.714296264293298</v>
       </c>
       <c r="F24">
-        <v>42.30283847696825</v>
+        <v>37.78819767043184</v>
       </c>
       <c r="G24">
-        <v>2.110497988657077</v>
+        <v>5.177005391941585</v>
       </c>
       <c r="H24">
-        <v>2.589187378776271</v>
+        <v>2.262495869452172</v>
       </c>
       <c r="I24">
-        <v>3.209599748161828</v>
+        <v>2.881035217367497</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>26.61190031017969</v>
+        <v>23.11353230769997</v>
       </c>
       <c r="L24">
-        <v>5.879999340252929</v>
+        <v>17.76982305450857</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.69284564453745</v>
       </c>
       <c r="N24">
-        <v>7.765164673968537</v>
+        <v>5.979831561636147</v>
       </c>
       <c r="O24">
-        <v>16.88149816001616</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>14.12072740313095</v>
+        <v>8.119811836920411</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>16.27393655590482</v>
+      </c>
+      <c r="R24">
+        <v>13.27001720923847</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>25.88182047633601</v>
+        <v>24.28624158001321</v>
       </c>
       <c r="C25">
-        <v>18.02466299071189</v>
+        <v>18.67515811284907</v>
       </c>
       <c r="D25">
-        <v>2.500476694806251</v>
+        <v>2.87995628685682</v>
       </c>
       <c r="E25">
-        <v>5.960040778181643</v>
+        <v>6.502431811834808</v>
       </c>
       <c r="F25">
-        <v>39.99276726497772</v>
+        <v>35.95975194923734</v>
       </c>
       <c r="G25">
-        <v>2.123408235658847</v>
+        <v>6.376820216278592</v>
       </c>
       <c r="H25">
-        <v>3.16765203116779</v>
+        <v>2.711011593258576</v>
       </c>
       <c r="I25">
-        <v>3.697655187373392</v>
+        <v>3.236872925299298</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>25.61196691623318</v>
+        <v>22.47159454928544</v>
       </c>
       <c r="L25">
-        <v>5.701339640706325</v>
+        <v>17.59498765812459</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.85632265158193</v>
       </c>
       <c r="N25">
-        <v>7.405123374213166</v>
+        <v>5.851253701186923</v>
       </c>
       <c r="O25">
-        <v>15.71047387450649</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>14.37214440384883</v>
+        <v>7.756449982131511</v>
       </c>
       <c r="Q25">
+        <v>15.15834831986479</v>
+      </c>
+      <c r="R25">
+        <v>13.53887909353075</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
